--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>时间</t>
   </si>
@@ -71,7 +71,16 @@
     <t>高</t>
   </si>
   <si>
-    <t>看learnexam考试培训系统前端代码</t>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看learnexam考试培训系统后台页面代码，搭考试培训系统前端框架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭考试培训系统前端页面框架环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -436,16 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="2" max="2" width="56.75" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
@@ -487,10 +496,24 @@
         <v>43003</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>43004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>时间</t>
   </si>
@@ -75,11 +75,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>看learnexam考试培训系统后台页面代码，搭考试培训系统前端框架</t>
+    <t>搭考试培训系统前端页面框架环境</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>搭考试培训系统前端页面框架环境</t>
+    <t>看learnexam考试培训系统后台页面代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭考试培训系统前端框架</t>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看NNZJ代码</t>
+  </si>
+  <si>
+    <t>react+antd学习</t>
+  </si>
+  <si>
+    <t>看NNZJ代码，项目布局研究</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -496,24 +517,68 @@
         <v>43003</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>43004</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>43005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>时间</t>
   </si>
@@ -65,9 +65,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>入职报道，看learnexam考试培训系统前端代码</t>
-  </si>
-  <si>
     <t>高</t>
   </si>
   <si>
@@ -101,6 +98,22 @@
   </si>
   <si>
     <t>看NNZJ代码，项目布局研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职报道，看learnexam考试培训系统后台页面代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>react+antd学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -503,10 +516,10 @@
         <v>43000</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="3">
         <v>0.2</v>
@@ -517,10 +530,10 @@
         <v>43003</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -529,10 +542,10 @@
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>0.8</v>
@@ -543,10 +556,10 @@
         <v>43004</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -555,30 +568,57 @@
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>43005</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>43006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>时间</t>
   </si>
@@ -113,7 +113,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>中</t>
+    <t>高</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -571,7 +571,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3">
         <v>0.1</v>
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3">
         <v>0.3</v>
@@ -612,12 +612,37 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
+      <c r="D13" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>43007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
       </c>
     </row>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>时间</t>
   </si>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>react+antd学习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -607,7 +611,7 @@
         <v>43006</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -637,13 +641,38 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="D16" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>时间</t>
   </si>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -653,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -666,12 +666,37 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
+      <c r="D19" s="3">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>43017</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>时间</t>
   </si>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>react+antd学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟米潇学习奶牛之家一期项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续跟米潇学习奶牛之家一期项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -483,16 +491,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="56.75" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
@@ -691,14 +699,32 @@
       <c r="C22" t="s">
         <v>6</v>
       </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
+      <c r="D23" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>43018</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>时间</t>
   </si>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -724,7 +724,21 @@
       <c r="C25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>时间</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>继续跟米潇学习奶牛之家一期项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续跟米潇学习奶牛之家一期项目，参与处理需求</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -711,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -725,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -733,12 +737,26 @@
         <v>43019</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>时间</t>
   </si>
@@ -129,7 +129,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>继续跟米潇学习奶牛之家一期项目，参与处理需求</t>
+    <t>参与处理三级类目丢失需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续跟米潇学习奶牛之家一期项目，参与处理三级类目丢失需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续跟米潇学习奶牛之家一期项目，参与处理添加签到码需求</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +202,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,16 +506,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="2" max="2" width="55.375" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
@@ -737,26 +748,43 @@
         <v>43019</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" customHeight="1">
       <c r="A29" s="2">
         <v>43020</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="3"/>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>时间</t>
   </si>
@@ -129,15 +129,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>参与处理三级类目丢失需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>继续跟米潇学习奶牛之家一期项目，参与处理三级类目丢失需求</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>继续跟米潇学习奶牛之家一期项目，参与处理添加签到码需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛之家一期项目，参与处理三级类目丢失需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱学习项目开始准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -748,7 +756,7 @@
         <v>43019</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -762,7 +770,7 @@
         <v>43020</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -779,12 +787,25 @@
         <v>43021</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>43024</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>时间</t>
   </si>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱学习项目开始准备，装just环境</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -796,15 +800,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>43024</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>43025</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="11370"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>时间</t>
   </si>
@@ -65,30 +65,22 @@
     <t>备注</t>
   </si>
   <si>
+    <t>入职报道，看learnexam考试培训系统后台页面代码</t>
+  </si>
+  <si>
     <t>高</t>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>看learnexam考试培训系统后台页面代码</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>搭考试培训系统前端框架</t>
   </si>
   <si>
     <t>搭考试培训系统前端页面框架环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>看learnexam考试培训系统后台页面代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭考试培训系统前端框架</t>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>看NNZJ代码</t>
@@ -98,66 +90,40 @@
   </si>
   <si>
     <t>看NNZJ代码，项目布局研究</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职报道，看learnexam考试培训系统后台页面代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>react+antd学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>react+antd学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跟米潇学习奶牛之家一期项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>继续跟米潇学习奶牛之家一期项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续跟米潇学习奶牛之家一期项目，参与处理添加签到码需求</t>
   </si>
   <si>
     <t>继续跟米潇学习奶牛之家一期项目，参与处理三级类目丢失需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续跟米潇学习奶牛之家一期项目，参与处理添加签到码需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奶牛之家一期项目，参与处理三级类目丢失需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱学习项目开始准备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>爱学习项目开始准备，装just环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛需求修改</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,32 +132,345 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -199,13 +478,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,11 +740,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -512,19 +1081,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="55.375" customWidth="1"/>
@@ -533,7 +1102,7 @@
     <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,52 +1119,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>43000</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>43003</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>43004</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -604,10 +1173,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -616,23 +1185,23 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>43005</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -641,23 +1210,23 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>43006</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -666,26 +1235,26 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>43007</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
         <v>0.7</v>
@@ -696,7 +1265,7 @@
         <v>43008</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -705,9 +1274,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -721,7 +1290,7 @@
         <v>43017</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -730,9 +1299,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -746,7 +1315,7 @@
         <v>43018</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -760,7 +1329,7 @@
         <v>43019</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -769,12 +1338,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1">
+    <row r="29" ht="17.25" customHeight="1" spans="1:4">
       <c r="A29" s="2">
         <v>43020</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -783,7 +1352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:1">
       <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:4">
@@ -791,7 +1360,7 @@
         <v>43021</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -805,10 +1374,10 @@
         <v>43024</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D33" s="3">
         <v>0.1</v>
@@ -818,42 +1387,63 @@
       <c r="A35" s="2">
         <v>43025</v>
       </c>
-      <c r="B35" t="s">
-        <v>25</v>
+      <c r="B35" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
+      <c r="D35" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:4">
+      <c r="A37" s="2">
+        <v>43026</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>时间</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>奶牛需求修改</t>
+  </si>
+  <si>
+    <t>爱学习项目开始准备</t>
   </si>
 </sst>
 </file>
@@ -118,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -133,6 +136,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,81 +205,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,50 +235,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,67 +288,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,19 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,91 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,22 +501,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,15 +538,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -553,17 +547,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,8 +574,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1407,7 +1410,21 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:4">
+      <c r="A39" s="2">
+        <v>43027</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -113,7 +113,7 @@
     <t>奶牛需求修改</t>
   </si>
   <si>
-    <t>爱学习项目开始准备</t>
+    <t>爱学习项目准备</t>
   </si>
 </sst>
 </file>
@@ -122,9 +122,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,13 +132,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,13 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -257,6 +243,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -288,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1419,12 +1419,26 @@
         <v>43027</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:4">
+      <c r="A41" s="2">
+        <v>43028</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="3"/>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>时间</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>奶牛需求修改</t>
+  </si>
+  <si>
+    <t>奶牛第二个需求修改</t>
   </si>
   <si>
     <t>爱学习项目准备</t>
@@ -121,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -135,9 +138,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,128 +222,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,90 +291,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,42 +435,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,19 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +482,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,23 +551,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,39 +582,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1096,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1419,7 +1422,7 @@
         <v>43027</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1433,12 +1436,14 @@
         <v>43028</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -124,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -138,6 +138,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -154,6 +184,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -162,7 +200,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,15 +222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,85 +238,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,18 +291,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,37 +429,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,121 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,54 +482,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,8 +503,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +549,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -590,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,16 +602,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,115 +620,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1444,6 +1444,18 @@
       <c r="D41" s="3">
         <v>0.5</v>
       </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:4">
+      <c r="A43" s="2">
+        <v>43031</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -124,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,6 +148,127 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,127 +281,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -291,85 +291,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,97 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,23 +503,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,26 +520,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,8 +542,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,145 +590,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1442,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:4">
@@ -1455,7 +1455,21 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:4">
+      <c r="A45" s="2">
+        <v>43031</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>时间</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>爱学习项目准备</t>
+  </si>
+  <si>
+    <t>练手</t>
   </si>
 </sst>
 </file>
@@ -125,8 +128,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -145,50 +148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -213,7 +172,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,53 +284,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -291,6 +294,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,6 +366,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -327,54 +402,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,90 +475,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +485,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,9 +520,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,61 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1461,7 +1464,7 @@
     </row>
     <row r="45" customFormat="1" spans="1:4">
       <c r="A45" s="2">
-        <v>43031</v>
+        <v>43032</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>22</v>
@@ -1469,7 +1472,21 @@
       <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:4">
+      <c r="A47" s="2">
+        <v>43033</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,8 +129,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,22 +142,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,47 +179,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,16 +232,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,45 +250,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,37 +294,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,145 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,28 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,17 +551,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +574,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1486,7 +1486,21 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:4">
+      <c r="A49" s="2">
+        <v>43034</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>时间</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>练手</t>
+  </si>
+  <si>
+    <t>奶牛第二个需求</t>
   </si>
 </sst>
 </file>
@@ -127,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,27 +145,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -178,6 +244,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -185,101 +266,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,17 +491,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,8 +547,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -537,31 +566,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +588,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +608,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1500,7 +1503,32 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:4">
+      <c r="A52" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -132,8 +132,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -297,49 +297,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,133 +405,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,16 +608,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,7 +629,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,88 +653,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1528,7 +1528,21 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:4">
+      <c r="A54" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>时间</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>奶牛第二个需求</t>
+  </si>
+  <si>
+    <t>奶牛提交测试</t>
   </si>
 </sst>
 </file>
@@ -131,8 +134,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -266,6 +269,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -273,20 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -303,6 +306,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,30 +330,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,48 +354,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,13 +414,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,54 +481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,142 +599,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1542,7 +1545,21 @@
       <c r="C54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:4">
+      <c r="A56" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -134,9 +134,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="56" customFormat="1" spans="1:4">
       <c r="A56" s="2">
-        <v>43038</v>
+        <v>43039</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -133,10 +133,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>时间</t>
   </si>
@@ -122,10 +122,16 @@
     <t>练手</t>
   </si>
   <si>
-    <t>奶牛第二个需求</t>
+    <t>奶牛需求课程学习统计中接口加个入参</t>
+  </si>
+  <si>
+    <t>奶牛统计分析下新添加一个学员学习统计的模块</t>
   </si>
   <si>
     <t>奶牛提交测试</t>
+  </si>
+  <si>
+    <t>学员学习统计，添加点击学习课程数弹出一个课程列表弹框</t>
   </si>
 </sst>
 </file>
@@ -133,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1102,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1512,7 +1518,7 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1526,7 +1532,7 @@
         <v>43035</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1540,7 +1546,7 @@
         <v>43038</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1554,12 +1560,38 @@
         <v>43039</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:4">
+      <c r="A57" s="2"/>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:4">
+      <c r="A59" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>时间</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>学员学习统计，添加点击学习课程数弹出一个课程列表弹框</t>
+  </si>
+  <si>
+    <t>自学</t>
+  </si>
+  <si>
+    <t>面试准备</t>
   </si>
 </sst>
 </file>
@@ -139,10 +145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -155,6 +161,135 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,135 +302,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -306,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,76 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,8 +533,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +623,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1591,7 +1597,29 @@
       <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:4">
+      <c r="A61" s="2">
+        <v>43041</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>时间</t>
   </si>
@@ -134,10 +134,13 @@
     <t>学员学习统计，添加点击学习课程数弹出一个课程列表弹框</t>
   </si>
   <si>
-    <t>自学</t>
-  </si>
-  <si>
-    <t>面试准备</t>
+    <t>学习react</t>
+  </si>
+  <si>
+    <t>整理面试题</t>
+  </si>
+  <si>
+    <t>学习</t>
   </si>
 </sst>
 </file>
@@ -145,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -161,6 +164,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +208,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -196,8 +230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,22 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,9 +270,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,30 +293,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,14 +305,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -312,24 +315,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,6 +363,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,121 +447,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,11 +509,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,73 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1611,13 +1614,38 @@
       <c r="C61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="2:3">
+      <c r="D61" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
       <c r="B62" t="s">
         <v>29</v>
       </c>
       <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:4">
+      <c r="A64" s="2">
+        <v>43042</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" customFormat="1" spans="2:3">
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -148,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -177,6 +177,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -185,16 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,15 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,69 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,49 +315,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,133 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +524,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -533,17 +557,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,35 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,145 +614,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,16 +1117,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="55.375" customWidth="1"/>
+    <col min="2" max="2" width="53.375" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
@@ -1639,7 +1639,9 @@
       <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="3"/>
+      <c r="D64" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="65" customFormat="1" spans="2:3">
       <c r="B65" t="s">
@@ -1648,6 +1650,18 @@
       <c r="C65" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:4">
+      <c r="A67" s="2">
+        <v>43045</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>时间</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>学习</t>
+  </si>
+  <si>
+    <t>统一后台修改bug</t>
   </si>
 </sst>
 </file>
@@ -149,8 +152,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -163,7 +166,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,107 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,21 +308,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -315,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,16 +512,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -539,11 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,17 +575,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,21 +609,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1643,25 +1646,31 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="65" customFormat="1" spans="2:3">
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:4">
-      <c r="A67" s="2">
+    <row r="66" customFormat="1" spans="1:4">
+      <c r="A66" s="2">
         <v>43045</v>
       </c>
-      <c r="B67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="3"/>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:4">
+      <c r="A68" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>时间</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>统一后台修改bug</t>
+  </si>
+  <si>
+    <t>提交测试</t>
+  </si>
+  <si>
+    <t>追加需求</t>
   </si>
 </sst>
 </file>
@@ -151,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -166,7 +172,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,10 +291,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,113 +314,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -318,12 +324,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,174 +505,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,17 +518,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,30 +538,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +566,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -609,6 +600,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -617,145 +623,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1670,7 +1676,29 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="3"/>
+      <c r="D68" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:4">
+      <c r="A70" s="2">
+        <v>43047</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>时间</t>
   </si>
@@ -146,10 +146,13 @@
     <t>统一后台修改bug</t>
   </si>
   <si>
-    <t>提交测试</t>
+    <t>统一后台修改bug，提交测试</t>
   </si>
   <si>
     <t>追加需求</t>
+  </si>
+  <si>
+    <t>追加抓拍次数，另添加点击抓拍数据后显示一个列表页面</t>
   </si>
 </sst>
 </file>
@@ -157,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -173,6 +176,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +220,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -200,8 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +258,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -224,6 +283,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -231,23 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,55 +311,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,11 +521,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,73 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1690,15 +1693,32 @@
       <c r="C70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="2:3">
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
       <c r="B71" t="s">
         <v>33</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
+      <c r="D71" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:4">
+      <c r="A73" s="2">
+        <v>43048</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>时间</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>追加抓拍次数，另添加点击抓拍数据后显示一个列表页面</t>
+  </si>
+  <si>
+    <t>提交测试</t>
+  </si>
+  <si>
+    <t>修改bug</t>
   </si>
 </sst>
 </file>
@@ -160,9 +166,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -297,6 +303,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -310,13 +323,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -327,6 +333,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,12 +363,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,31 +417,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,19 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +495,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,61 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,16 +644,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,112 +665,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1718,7 +1724,29 @@
       <c r="C73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:4">
+      <c r="A75" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -155,7 +155,7 @@
     <t>追加抓拍次数，另添加点击抓拍数据后显示一个列表页面</t>
   </si>
   <si>
-    <t>提交测试</t>
+    <t>奶牛需求修改及测试</t>
   </si>
   <si>
     <t>修改bug</t>
@@ -167,9 +167,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>时间</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>奶牛需求修改及测试</t>
-  </si>
-  <si>
-    <t>修改bug</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1738,15 +1735,24 @@
       <c r="C75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" customFormat="1" spans="1:4">
+      <c r="A77" s="2">
+        <v>43052</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>时间</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>奶牛需求修改及测试</t>
+  </si>
+  <si>
+    <t>奶牛小测试</t>
   </si>
 </sst>
 </file>
@@ -164,9 +167,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1132,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1747,12 +1750,26 @@
         <v>43052</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="3"/>
+      <c r="D77" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:4">
+      <c r="A79" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>时间</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>奶牛小测试</t>
+  </si>
+  <si>
+    <t>奶牛需求修改bug</t>
   </si>
 </sst>
 </file>
@@ -167,9 +170,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1135,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1764,12 +1767,37 @@
         <v>43053</v>
       </c>
       <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
         <v>36</v>
       </c>
-      <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="3"/>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:4">
+      <c r="A82" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>时间</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>奶牛需求修改bug</t>
+  </si>
+  <si>
+    <t>讲师管理-增加讲师，新增需求</t>
+  </si>
+  <si>
+    <t>16.30开始</t>
   </si>
 </sst>
 </file>
@@ -170,9 +176,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -183,8 +189,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,133 +326,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -336,6 +342,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,60 +516,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,96 +523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,41 +536,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,17 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +592,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,137 +653,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,6 +798,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1138,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1150,7 +1159,7 @@
     <col min="2" max="2" width="53.375" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1792,12 +1801,39 @@
         <v>43054</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="3"/>
+      <c r="D82" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -175,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -186,6 +186,111 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,104 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,14 +332,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -342,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,15 +533,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,15 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +571,35 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,17 +633,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1824,7 +1824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" s="2">
         <v>43055</v>
       </c>
@@ -1832,6 +1832,20 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:3">
+      <c r="A87" s="2">
+        <v>43056</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>时间</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>16.30开始</t>
+  </si>
+  <si>
+    <t>爱学习首页改版</t>
   </si>
 </sst>
 </file>
@@ -175,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -190,9 +193,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,15 +222,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -227,7 +247,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,44 +262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,10 +285,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,9 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,14 +335,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -342,37 +345,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,145 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +536,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +589,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,65 +636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1838,7 +1841,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="87" customFormat="1" spans="1:3">
+    <row r="87" customFormat="1" spans="1:4">
       <c r="A87" s="2">
         <v>43056</v>
       </c>
@@ -1848,6 +1851,36 @@
       <c r="C87" t="s">
         <v>6</v>
       </c>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" customFormat="1" spans="1:4">
+      <c r="A90" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/余苗-每日要做的事.xlsx
+++ b/交流管理/项目日报/余苗-每日要做的事.xlsx
@@ -178,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -194,29 +194,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,19 +237,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,24 +305,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,6 +345,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,19 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,72 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +536,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,6 +574,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,41 +630,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -644,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1880,7 +1880,21 @@
       <c r="C90" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="3"/>
+      <c r="D90" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:4">
+      <c r="A92" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
